--- a/stock_historical_data/1wk/GET&D.NS.xlsx
+++ b/stock_historical_data/1wk/GET&D.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GET&D.NS.xlsx
+++ b/stock_historical_data/1wk/GET&D.NS.xlsx
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GET&D.NS.xlsx
+++ b/stock_historical_data/1wk/GET&D.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64369,6 +64369,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>1592.75</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>1585</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>1585</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>462606</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>1615</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>1435.650024414062</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>1491.699951171875</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>1491.699951171875</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>320921</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
